--- a/results/App_Data.xlsx
+++ b/results/App_Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srinivasan_k\stsworkspace\Sample_Project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B4F3F2-E86D-4AB6-8BFA-CC4D0666BAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F2713-1C95-4FB3-99D3-273AF769BCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{211D67FA-505B-4223-82BA-C81FB85370C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Age" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>{
 	"request": 1,
@@ -66,6 +66,110 @@
 	"response": 1,
 	"data": {
 		"sync": "1"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"request": 5,
+	"data": {
+		"sync": "3"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"response": 5,
+	"data": {
+		"sync": "4"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"request": 6,
+	"data": {
+		"sync": "3"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"response": 6,
+	"data": {
+		"sync": "4"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"request": 7,
+	"data": {
+		"sync": "3"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"response": 7,
+	"data": {
+		"sync": "4"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"request": 8,
+	"data": {
+		"sync": "3"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"request": 9,
+	"data": {
+		"sync": "3"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"response": 9,
+	"data": {
+		"sync": "4"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"request": 10,
+	"data": {
+		"sync": "3"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"response": 10,
+	"data": {
+		"sync": "4"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"request": 11,
+	"data": {
+		"sync": "3"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"response": 11,
+	"data": {
+		"sync": "4"
 	}
 }</t>
   </si>
@@ -422,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC21EC6-04F9-4148-BCAC-18773FBEC468}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,6 +557,76 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
